--- a/scripts/sample_doctors.xlsx
+++ b/scripts/sample_doctors.xlsx
@@ -397,32 +397,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>Doctor Name</v>
       </c>
       <c r="B1" t="str">
+        <v>City</v>
+      </c>
+      <c r="C1" t="str">
+        <v>State</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="E1" t="str">
         <v>E-mail</v>
       </c>
-      <c r="C1" t="str">
-        <v>Category/ Specialization</v>
-      </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>Phone Number</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Category</v>
+      </c>
+      <c r="H1" t="str">
         <v>Designation</v>
       </c>
-      <c r="E1" t="str">
-        <v>City</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Phone</v>
+      <c r="I1" t="str">
+        <v>pincode</v>
+      </c>
+      <c r="J1" t="str">
+        <v>website</v>
       </c>
     </row>
     <row r="2">
@@ -430,22 +439,31 @@
         <v>Dr. Rajesh Kumar</v>
       </c>
       <c r="B2" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="D2" t="str">
+        <v>123, Health Street, Bandra</v>
+      </c>
+      <c r="E2" t="str">
         <v>rajesh.kumar@example.com</v>
       </c>
-      <c r="C2" t="str">
-        <v>Cardsiology</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Cardiologist</v>
+      </c>
+      <c r="H2" t="str">
         <v>Senior Consultant</v>
       </c>
-      <c r="E2" t="str">
-        <v>Mumbai</v>
-      </c>
-      <c r="F2" t="str">
-        <v>123, Health Street, Bandra</v>
-      </c>
-      <c r="G2" t="str">
-        <v>9876543210</v>
+      <c r="I2" t="str">
+        <v>400050</v>
+      </c>
+      <c r="J2" t="str">
+        <v>www.rajeshkumar.com</v>
       </c>
     </row>
     <row r="3">
@@ -453,22 +471,31 @@
         <v>Dr. Anjali Gupta</v>
       </c>
       <c r="B3" t="str">
+        <v>Delhi</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Delhi</v>
+      </c>
+      <c r="D3" t="str">
+        <v>456, Care Lane, Dwarka</v>
+      </c>
+      <c r="E3" t="str">
         <v>anjali.gupta@example.com</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dermatology</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
+        <v>8765432109</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Dermatologist</v>
+      </c>
+      <c r="H3" t="str">
         <v>Consultant</v>
       </c>
-      <c r="E3" t="str">
-        <v>Delhi</v>
-      </c>
-      <c r="F3" t="str">
-        <v>456, Care Lane, Dwarka</v>
-      </c>
-      <c r="G3" t="str">
-        <v>8765432109</v>
+      <c r="I3" t="str">
+        <v>110075</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -476,27 +503,36 @@
         <v>Dr. Vivek Singh</v>
       </c>
       <c r="B4" t="str">
+        <v>Bangalore</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="D4" t="str">
+        <v>789, Bone Avenue, Indiranagar</v>
+      </c>
+      <c r="E4" t="str">
         <v>vivek.singh@example.com</v>
       </c>
-      <c r="C4" t="str">
+      <c r="F4" t="str">
+        <v>7654321098</v>
+      </c>
+      <c r="G4" t="str">
         <v>Orthopedics</v>
       </c>
-      <c r="D4" t="str">
+      <c r="H4" t="str">
         <v>Head of Department</v>
       </c>
-      <c r="E4" t="str">
-        <v>Bangalore</v>
-      </c>
-      <c r="F4" t="str">
-        <v>789, Bone Avenue, Indiranagar</v>
-      </c>
-      <c r="G4" t="str">
-        <v>7654321098</v>
+      <c r="I4" t="str">
+        <v>560038</v>
+      </c>
+      <c r="J4" t="str">
+        <v>www.viveksingh.in</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>